--- a/reports/raw-views/assets/tables/meso_MASI.xlsx
+++ b/reports/raw-views/assets/tables/meso_MASI.xlsx
@@ -466,10 +466,10 @@
         <v>0.09977748797677777</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2688018021214071</v>
+        <v>0.275248804907453</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2447283686841835</v>
+        <v>0.2425352686541358</v>
       </c>
     </row>
   </sheetData>
